--- a/other/soccer/2023/テゲバジャーロ宮崎.xlsx
+++ b/other/soccer/2023/テゲバジャーロ宮崎.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snakajima\Documents\MyDocument\_git\private\other\soccer\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F4789C-F923-4D78-8940-75ACF5288ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3367D72B-242D-477D-A299-157108590484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="128">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -593,28 +593,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>出場記録(〇スタメン、▲交代抜、▲交代入、●フル）</t>
-    <rPh sb="0" eb="2">
-      <t>シュツジョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キロク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>コウタイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ヌ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>コウタイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DF</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -986,10 +964,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0-0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2012:U-23日本代表</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1001,22 +975,97 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>0-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3/1～4/1負傷</t>
+    <rPh sb="7" eb="9">
+      <t>フショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▼5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▲4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▼3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▲2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▼2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3/4~4/4負傷</t>
+    <rPh sb="7" eb="9">
+      <t>フショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>▼</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>▲</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>▼(右)</t>
-    <rPh sb="2" eb="3">
-      <t>ミギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>▼</t>
+    <t>出場記録(〇スタメン、▼交代抜、▲交代入、★得点）</t>
+    <rPh sb="0" eb="2">
+      <t>シュツジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウタイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トクテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3/10～3/31 負傷</t>
+    <rPh sb="10" eb="12">
+      <t>フショウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1105,7 +1154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1122,6 +1171,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1406,8 +1458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AS35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1423,17 +1475,19 @@
   <sheetData>
     <row r="1" spans="2:45">
       <c r="H1" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="2:45">
       <c r="G2" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I2" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -1473,7 +1527,7 @@
     </row>
     <row r="3" spans="2:45">
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
@@ -1488,7 +1542,7 @@
         <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>31</v>
@@ -1616,17 +1670,19 @@
         <v>24</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="J4" s="9"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -1674,17 +1730,19 @@
         <v>26</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="9"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -1732,15 +1790,15 @@
         <v>23</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="9"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -1788,17 +1846,19 @@
         <v>23</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="J7" s="9"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -1846,17 +1906,19 @@
         <v>18</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G8" s="4"/>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="I8" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="J8" s="9"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -1904,15 +1966,15 @@
         <v>20</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G9" s="4"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="9"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -1960,17 +2022,19 @@
         <v>22</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="H10" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="J10" s="9"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -2018,15 +2082,17 @@
         <v>24</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="9"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -2074,19 +2140,21 @@
         <v>26</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="G12" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="I12" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" s="9"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -2134,15 +2202,17 @@
         <v>33</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G13" s="4"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" s="9"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -2184,25 +2254,27 @@
         <v>18</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D14" s="4">
         <v>33</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H14" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="I14" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" s="9"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -2250,15 +2322,17 @@
         <v>35</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G15" s="5"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="9"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -2306,17 +2380,19 @@
         <v>25</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G16" s="5"/>
-      <c r="H16" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="J16" s="9"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -2364,15 +2440,17 @@
         <v>23</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G17" s="5"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="J17" s="9"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -2420,17 +2498,19 @@
         <v>25</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G18" s="5"/>
-      <c r="H18" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="J18" s="9"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -2478,15 +2558,15 @@
         <v>23</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G19" s="5"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="9"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -2534,17 +2614,19 @@
         <v>24</v>
       </c>
       <c r="E20" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="G20" s="5"/>
-      <c r="H20" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="H20" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="J20" s="9"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -2586,23 +2668,23 @@
         <v>31</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D21" s="5">
         <v>18</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+        <v>111</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="9"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -2644,21 +2726,21 @@
         <v>41</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D22" s="5">
         <v>18</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G22" s="5"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="9"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
@@ -2706,17 +2788,19 @@
         <v>30</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="H23" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="J23" s="9"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -2764,17 +2848,17 @@
         <v>33</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G24" s="6"/>
-      <c r="H24" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="H24" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I24" s="10"/>
+      <c r="J24" s="9"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -2822,15 +2906,17 @@
         <v>24</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="9"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -2879,15 +2965,15 @@
         <v>27</v>
       </c>
       <c r="E26" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="G26" s="6"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="9"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -2929,21 +3015,23 @@
         <v>17</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D27" s="6">
         <v>23</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G27" s="6"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="J27" s="9"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -2991,17 +3079,17 @@
         <v>24</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G28" s="6"/>
-      <c r="H28" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+      <c r="H28" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I28" s="10"/>
+      <c r="J28" s="9"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -3043,23 +3131,25 @@
         <v>28</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D29" s="6">
         <v>25</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F29" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="G29" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H29" s="9"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="J29" s="9"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -3108,15 +3198,17 @@
         <v>29</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G30" s="6"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="J30" s="9"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -3164,17 +3256,17 @@
         <v>31</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G31" s="6"/>
-      <c r="H31" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+      <c r="H31" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I31" s="10"/>
+      <c r="J31" s="9"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -3225,12 +3317,14 @@
         <v>28</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="9"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
@@ -3281,14 +3375,16 @@
         <v>28</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G33" s="7"/>
-      <c r="H33" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
+      <c r="H33" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="J33" s="9"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
@@ -3330,7 +3426,7 @@
         <v>21</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D34" s="7">
         <v>23</v>
@@ -3339,12 +3435,12 @@
         <v>28</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G34" s="7"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="9"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -3395,12 +3491,12 @@
         <v>28</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G35" s="7"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="9"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
